--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/github/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5702E4-AE48-DF4D-9DEA-D654559F0795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925CB322-65D4-6945-87DC-949C0FAB6614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A2:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/github/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925CB322-65D4-6945-87DC-949C0FAB6614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D5A3D-217E-8947-AC54-DD9F89807BDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
+    <workbookView xWindow="38400" yWindow="1000" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -187,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +282,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -337,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -411,6 +419,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -726,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:G186"/>
+  <dimension ref="A2:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,8 +1361,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
@@ -1364,8 +1375,12 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="35"/>
-      <c r="C113" s="14"/>
+      <c r="B113" s="13">
+        <v>37869</v>
+      </c>
+      <c r="C113" s="13">
+        <v>751091</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -1377,23 +1392,26 @@
       <c r="B115" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>751091</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="8"/>
+      <c r="C116" s="8">
+        <v>403</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="31"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
@@ -1404,155 +1422,177 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
+      <c r="B120" s="13">
+        <v>447</v>
+      </c>
+      <c r="C120" s="13">
+        <v>750644</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C122" s="13">
+        <v>750644</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="8">
+        <v>447</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="B125" s="41"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="35">
+        <v>10287</v>
+      </c>
+      <c r="C127" s="14">
+        <v>740357</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="14">
+        <v>740357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="13"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="B132" s="31"/>
+      <c r="C132" s="13"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7" t="s">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="38" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B137" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="38" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C139" s="8"/>
-      <c r="D139" s="31"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="32"/>
-      <c r="C140" s="31"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141" s="32"/>
-      <c r="C141" s="31"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="31"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="31"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="32"/>
+      <c r="C144" s="31"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="32"/>
+      <c r="C145" s="31"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="8"/>
-      <c r="C145" s="13"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B147" s="8"/>
-      <c r="C147" s="13"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
@@ -1560,7 +1600,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
@@ -1568,7 +1608,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B152" s="8"/>
@@ -1583,58 +1623,62 @@
       <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="9"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C159" s="7"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C162" s="8"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="C166" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B168" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B165" s="8"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="8"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="8"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
@@ -1650,7 +1694,6 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B173" s="8"/>
-      <c r="C173" s="31"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B174" s="8"/>
@@ -1663,6 +1706,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B177" s="8"/>
+      <c r="C177" s="31"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B178" s="8"/>
@@ -1681,24 +1725,36 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B183" s="8"/>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="8"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="8"/>
+      <c r="C187" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B189" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="13"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B186" s="7" t="s">
+      <c r="C189" s="13"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="9"/>
+      <c r="C190" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/github/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D5A3D-217E-8947-AC54-DD9F89807BDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CD8F3-A527-3045-BC4D-553B3B3868C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1000" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -108,12 +108,6 @@
     <t>PC3</t>
   </si>
   <si>
-    <t>Proportion variance</t>
-  </si>
-  <si>
-    <t>Cumulative variance</t>
-  </si>
-  <si>
     <t>PC4</t>
   </si>
   <si>
@@ -178,6 +172,69 @@
   </si>
   <si>
     <t>R06C01</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>Proportion variance (%)</t>
+  </si>
+  <si>
+    <t>Cumulative variance (%)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +347,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -345,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -403,7 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -420,6 +482,10 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -735,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:G190"/>
+  <dimension ref="A2:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C138" sqref="B138:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,14 +925,14 @@
       <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="21"/>
     </row>
@@ -1010,8 +1076,8 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="39" t="s">
-        <v>46</v>
+      <c r="D51" s="38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1020,7 +1086,7 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="34"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="30"/>
       <c r="D53" s="6"/>
     </row>
@@ -1130,8 +1196,8 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="39" t="s">
-        <v>46</v>
+      <c r="D74" s="38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1156,13 +1222,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="26"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C80" s="27">
         <v>403</v>
@@ -1182,7 +1248,7 @@
       <c r="B82" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="39">
         <v>1052641</v>
       </c>
       <c r="D82" s="4"/>
@@ -1197,7 +1263,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C84" s="30"/>
     </row>
@@ -1223,7 +1289,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="31"/>
@@ -1246,8 +1312,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="36" t="s">
-        <v>35</v>
+      <c r="A91" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="B91" s="28"/>
     </row>
@@ -1319,7 +1385,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1374,7 +1440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B113" s="13">
         <v>37869</v>
       </c>
@@ -1382,12 +1448,12 @@
         <v>751091</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="7" t="s">
         <v>1</v>
@@ -1396,7 +1462,7 @@
         <v>751091</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>2</v>
       </c>
@@ -1404,16 +1470,16 @@
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B117" s="32"/>
       <c r="C117" s="31"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B120" s="13">
         <v>447</v>
       </c>
@@ -1429,9 +1495,9 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>1</v>
@@ -1440,21 +1506,66 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="8">
         <v>447</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G123" s="41">
+        <v>30895</v>
+      </c>
+      <c r="H123" s="41">
+        <v>14001</v>
+      </c>
+      <c r="I123" s="41">
+        <v>18660</v>
+      </c>
+      <c r="J123" s="41">
+        <v>11355</v>
+      </c>
+      <c r="K123" s="41">
+        <v>11324</v>
+      </c>
+      <c r="L123" s="41">
+        <v>43831</v>
+      </c>
+      <c r="M123" t="s">
+        <v>59</v>
+      </c>
+      <c r="N123" t="s">
+        <v>60</v>
+      </c>
+      <c r="O123" t="s">
+        <v>61</v>
+      </c>
+      <c r="P123" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>63</v>
+      </c>
+      <c r="R123" t="s">
+        <v>64</v>
+      </c>
+      <c r="S123" t="s">
+        <v>65</v>
+      </c>
+      <c r="T123" t="s">
+        <v>66</v>
+      </c>
+      <c r="U123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="41"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="40"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>15</v>
       </c>
@@ -1462,17 +1573,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B127" s="34">
         <v>10287</v>
       </c>
       <c r="C127" s="14">
         <v>740357</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -1508,208 +1619,309 @@
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="C135" s="42">
+        <v>8.84</v>
+      </c>
+      <c r="D135" s="42">
+        <v>8.84</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="C136" s="43">
+        <v>5.38</v>
+      </c>
+      <c r="D136" s="43">
+        <v>14.219999999999999</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
+      <c r="C137" s="43">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D137" s="43">
+        <v>16.729999999999997</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="38" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C138" s="43">
+        <v>2.31</v>
+      </c>
+      <c r="D138" s="43">
+        <v>19.039999999999996</v>
+      </c>
+      <c r="E138" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C139" s="43">
+        <v>1.31</v>
+      </c>
+      <c r="D139" s="43">
+        <v>20.349999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="D140" s="43">
+        <v>21.549999999999994</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>37</v>
+      <c r="B141" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="44">
+        <v>0.98</v>
+      </c>
+      <c r="D141" s="44">
+        <v>22.529999999999994</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="C142" s="44">
+        <v>0.93</v>
+      </c>
+      <c r="D142" s="44">
+        <v>23.459999999999994</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="44">
+        <v>0.74</v>
+      </c>
+      <c r="D143" s="44">
+        <v>24.199999999999992</v>
+      </c>
+      <c r="E143" s="37"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="44">
+        <v>0.71</v>
+      </c>
+      <c r="D144" s="44">
+        <v>24.909999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="D145" s="44">
+        <v>25.509999999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="44">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D146" s="44">
+        <v>26.089999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D147" s="44">
+        <v>26.639999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="D148" s="44">
+        <v>27.159999999999993</v>
+      </c>
+      <c r="E148" s="37"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C149" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D149" s="44">
+        <v>27.659999999999993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="31"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="31"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="32"/>
-      <c r="C144" s="31"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="32"/>
-      <c r="C145" s="31"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="7" t="s">
+      <c r="C153" s="8"/>
+      <c r="D153" s="31"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="32"/>
+      <c r="C154" s="31"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="32"/>
+      <c r="C155" s="31"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="8"/>
-      <c r="C149" s="13"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="8"/>
-      <c r="C151" s="13"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B159" s="7" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="8"/>
+      <c r="C159" s="13"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="8"/>
+      <c r="C161" s="13"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169" s="7"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="9"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163" s="9"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C166" s="8"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="8"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="8"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="8"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="8"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="8"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="8"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="8"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="8"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="8"/>
-      <c r="C177" s="31"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="8"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B179" s="8"/>
@@ -1737,26 +1949,58 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="8"/>
-      <c r="C187" t="s">
-        <v>48</v>
-      </c>
+      <c r="C187" s="31"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="8"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="8"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="8"/>
+      <c r="C197" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C189" s="13"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B190" s="7" t="s">
+      <c r="C199" s="13"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C200" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/github/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CD8F3-A527-3045-BC4D-553B3B3868C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF6BDE9-A84E-AB45-88A7-13E333E4B106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="980" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
@@ -804,7 +804,7 @@
   <dimension ref="A2:U200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C138" sqref="B138:C138"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,14 +1804,18 @@
       <c r="B152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="14">
+        <v>740357</v>
+      </c>
       <c r="D152" s="31"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C153" s="8"/>
+      <c r="C153" s="8">
+        <v>403</v>
+      </c>
       <c r="D153" s="31"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/github/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF6BDE9-A84E-AB45-88A7-13E333E4B106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D091CCA-96C8-114A-876C-FE3F6B5B9867}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="980" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
+    <workbookView xWindow="30920" yWindow="3700" windowWidth="28800" windowHeight="16420" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -202,33 +202,6 @@
   </si>
   <si>
     <t>PC15</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.50</t>
   </si>
   <si>
     <t>Proportion variance (%)</t>
@@ -801,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:U200"/>
+  <dimension ref="A2:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B113" s="13">
         <v>37869</v>
       </c>
@@ -1448,12 +1421,12 @@
         <v>751091</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="7" t="s">
         <v>1</v>
@@ -1462,7 +1435,7 @@
         <v>751091</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>2</v>
       </c>
@@ -1470,16 +1443,16 @@
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B117" s="32"/>
       <c r="C117" s="31"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B120" s="13">
         <v>447</v>
       </c>
@@ -1495,7 +1468,7 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -1506,66 +1479,27 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="8">
         <v>447</v>
       </c>
-      <c r="G123" s="41">
-        <v>30895</v>
-      </c>
-      <c r="H123" s="41">
-        <v>14001</v>
-      </c>
-      <c r="I123" s="41">
-        <v>18660</v>
-      </c>
-      <c r="J123" s="41">
-        <v>11355</v>
-      </c>
-      <c r="K123" s="41">
-        <v>11324</v>
-      </c>
-      <c r="L123" s="41">
-        <v>43831</v>
-      </c>
-      <c r="M123" t="s">
-        <v>59</v>
-      </c>
-      <c r="N123" t="s">
-        <v>60</v>
-      </c>
-      <c r="O123" t="s">
-        <v>61</v>
-      </c>
-      <c r="P123" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>63</v>
-      </c>
-      <c r="R123" t="s">
-        <v>64</v>
-      </c>
-      <c r="S123" t="s">
-        <v>65</v>
-      </c>
-      <c r="T123" t="s">
-        <v>66</v>
-      </c>
-      <c r="U123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B125" s="40"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B127" s="34">
         <v>10287</v>
       </c>
@@ -1581,7 +1515,7 @@
         <v>740357</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>34</v>
       </c>
@@ -1619,10 +1553,10 @@
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/bio/code/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A92CB-1F42-B241-805E-B5B0B62CEB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FE5FA-DE42-DC46-AE35-537A9731168B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="940" windowWidth="38400" windowHeight="18000" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
+    <workbookView xWindow="30420" yWindow="3320" windowWidth="38400" windowHeight="18000" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -141,27 +141,15 @@
     <t>Betas_combated_mixc</t>
   </si>
   <si>
-    <t>gaphunter</t>
-  </si>
-  <si>
     <t>number of gaps</t>
   </si>
   <si>
-    <t>Ids cordblood contamination</t>
-  </si>
-  <si>
-    <t>ArrayIDs</t>
-  </si>
-  <si>
     <t>Betas_combated_CC</t>
   </si>
   <si>
     <t>in green how many PCs you chose</t>
   </si>
   <si>
-    <t>n= X</t>
-  </si>
-  <si>
     <t>R08330</t>
   </si>
   <si>
@@ -211,6 +199,37 @@
   </si>
   <si>
     <t>after detection p-value exclusion (RGSet_qc)</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>gaphunter
+(threshold = 0.05, cutoff = 0.01)</t>
+  </si>
+  <si>
+    <t>200712160042_R01C01</t>
+  </si>
+  <si>
+    <t>200720060022_R04C01</t>
+  </si>
+  <si>
+    <t>200720060022_R03C01</t>
+  </si>
+  <si>
+    <t>200712160042_R02C01</t>
+  </si>
+  <si>
+    <t>veh</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>MPIPSYKL_007875</t>
+  </si>
+  <si>
+    <t>MPIPSYKL_007893</t>
   </si>
 </sst>
 </file>
@@ -739,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:L149"/>
+  <dimension ref="A2:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,7 +800,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -794,10 +813,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -806,7 +825,7 @@
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -866,10 +885,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -898,10 +917,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -1277,10 +1296,10 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,7 +1346,7 @@
         <v>19.039999999999996</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,7 +1362,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C89" s="32">
         <v>1.2</v>
@@ -1354,7 +1373,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C90" s="33">
         <v>0.98</v>
@@ -1365,7 +1384,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C91" s="33">
         <v>0.93</v>
@@ -1376,7 +1395,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C92" s="33">
         <v>0.74</v>
@@ -1388,7 +1407,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C93" s="33">
         <v>0.71</v>
@@ -1399,7 +1418,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C94" s="33">
         <v>0.6</v>
@@ -1410,7 +1429,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C95" s="33">
         <v>0.57999999999999996</v>
@@ -1421,7 +1440,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C96" s="33">
         <v>0.55000000000000004</v>
@@ -1432,7 +1451,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C97" s="33">
         <v>0.52</v>
@@ -1444,7 +1463,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C98" s="33">
         <v>0.5</v>
@@ -1496,170 +1515,113 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="7"/>
-      <c r="C108" s="12"/>
+      <c r="B108" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="7"/>
-      <c r="C110" s="12"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="B110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8">
+        <v>740357</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+      <c r="B114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1469</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1439</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="8"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="7"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B135" s="7"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="7"/>
-      <c r="C136" s="21"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="7"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="7"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="7"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="7"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="7"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="7"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="7"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="7"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="7"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="7"/>
-      <c r="C146" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="12"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/bio/code/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FE5FA-DE42-DC46-AE35-537A9731168B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C749F4-2136-B949-8EC9-55C2F257D9F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="3320" windowWidth="38400" windowHeight="18000" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>MPIPSYKL_007893</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -758,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:L121"/>
+  <dimension ref="A2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="C117" s="7">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,23 +1608,28 @@
         <v>58</v>
       </c>
       <c r="C118" s="7">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="12"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="12"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="8"/>
+      <c r="C122" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/samples_steps_template.xlsx
+++ b/samples_steps_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiia_hry/bio/code/mpip/dex-stim-dna-methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C749F4-2136-B949-8EC9-55C2F257D9F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E6BCC3-C7D4-A64F-ACA5-94F8E02F5047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0E806724-001C-4148-A6ED-79CE17BF1AFD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>start RGSet (original)</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>number of gaps</t>
-  </si>
-  <si>
-    <t>Betas_combated_CC</t>
   </si>
   <si>
     <t>in green how many PCs you chose</t>
@@ -233,6 +230,27 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>dex_methyl_phenotype</t>
+  </si>
+  <si>
+    <t>dex_methyl_detP</t>
+  </si>
+  <si>
+    <t>dex_methyl_bmiq_quantileN</t>
+  </si>
+  <si>
+    <t>dex_methyl_bmiq_quantileN_filtered</t>
+  </si>
+  <si>
+    <t>dex_methyl_beta_combat_mtrx</t>
+  </si>
+  <si>
+    <t>dex_methyl_beta_combat_exprset</t>
+  </si>
+  <si>
+    <t>dex_methyl_rgset_final</t>
   </si>
 </sst>
 </file>
@@ -242,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +348,15 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -385,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -446,6 +473,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -761,31 +796,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EF277-EC73-5843-8A8F-3EFAB31A65A1}">
-  <dimension ref="A2:L122"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="5" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="12">
-        <v>866836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -793,7 +822,7 @@
         <v>1052641</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -801,12 +830,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -814,24 +843,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
@@ -839,7 +868,7 @@
         <v>1052641</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -847,15 +876,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
@@ -863,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -888,10 +917,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -920,10 +949,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -993,6 +1022,9 @@
       <c r="C34" s="12">
         <v>866836</v>
       </c>
+      <c r="D34" s="25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
@@ -1181,7 +1213,7 @@
         <v>751091</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
@@ -1189,16 +1221,16 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <v>447</v>
       </c>
@@ -1214,7 +1246,7 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1257,7 @@
         <v>750644</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>2</v>
       </c>
@@ -1237,15 +1269,14 @@
       <c r="I72" s="30"/>
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="29"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" s="24">
         <v>10287</v>
       </c>
@@ -1261,12 +1292,12 @@
         <v>740357</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="6" t="s">
         <v>1</v>
@@ -1275,7 +1306,7 @@
         <v>740357</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1314,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,10 +1330,10 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,6 +1346,9 @@
       <c r="D84" s="31">
         <v>8.84</v>
       </c>
+      <c r="E84" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
@@ -1348,9 +1382,6 @@
       <c r="D87" s="32">
         <v>19.039999999999996</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
@@ -1365,7 +1396,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="32">
         <v>1.2</v>
@@ -1376,7 +1407,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C90" s="33">
         <v>0.98</v>
@@ -1387,7 +1418,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" s="33">
         <v>0.93</v>
@@ -1398,7 +1429,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C92" s="33">
         <v>0.74</v>
@@ -1410,7 +1441,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="33">
         <v>0.71</v>
@@ -1421,7 +1452,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="33">
         <v>0.6</v>
@@ -1432,7 +1463,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="33">
         <v>0.57999999999999996</v>
@@ -1443,7 +1474,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="33">
         <v>0.55000000000000004</v>
@@ -1454,7 +1485,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="33">
         <v>0.52</v>
@@ -1466,7 +1497,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="33">
         <v>0.5</v>
@@ -1519,46 +1550,46 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,7 +1623,7 @@
     </row>
     <row r="116" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,7 +1636,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="7">
         <v>1435</v>
@@ -1613,23 +1644,170 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B121" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="12"/>
+      <c r="C121" s="12">
+        <v>399</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="39"/>
       <c r="B122" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="8"/>
+      <c r="C122" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="39"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12">
+        <v>866836</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="39"/>
+      <c r="B125" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="39"/>
+      <c r="C126" s="36"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="12">
+        <v>865859</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="39"/>
+      <c r="B128" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="39"/>
+      <c r="C129" s="36"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="12">
+        <v>740357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="39"/>
+      <c r="B131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="39"/>
+      <c r="C132" s="36"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="12">
+        <v>740357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="39"/>
+      <c r="B134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="39"/>
+      <c r="C135" s="36"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="12">
+        <v>740357</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="39"/>
+      <c r="B137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="39"/>
+      <c r="C138" s="36"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="12">
+        <v>1052641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="11">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
